--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +501,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +548,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +703,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +750,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +905,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +952,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1107,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1154,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1396,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1443,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1685,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1732,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1887,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1910,28 +1934,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2147,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2194,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2378,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2425,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2580,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2627,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2898,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2945,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3250,10 +3274,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3297,28 +3321,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3343,28 +3367,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3476,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3523,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3569,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3678,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3725,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3880,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3927,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4232,10 +4256,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4279,28 +4303,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4325,28 +4349,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4632,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4679,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4834,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4881,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4927,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5012,10 +5036,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5059,28 +5083,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5105,28 +5129,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5214,10 +5238,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5261,28 +5285,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5307,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5532,10 +5556,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5579,28 +5603,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5625,28 +5649,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5850,10 +5874,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5897,28 +5921,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5943,28 +5967,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6052,10 +6076,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6099,28 +6123,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6145,28 +6169,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6370,10 +6394,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6417,28 +6441,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6463,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6683,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
